--- a/Main/bin/Debug/TabelaDeTransicao.xlsx
+++ b/Main/bin/Debug/TabelaDeTransicao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-UFG\Disciplinas\Compiladores1\TrabalhoT2\ProjetoCompilador\Main\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-UFG\Projetos\Compilador\Main\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
   <si>
     <t>\n</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>opr</t>
+  </si>
+  <si>
+    <t>ab_p</t>
+  </si>
+  <si>
+    <t>fc_p</t>
+  </si>
+  <si>
+    <t>pt_v</t>
   </si>
 </sst>
 </file>
@@ -661,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,13 +877,13 @@
         <v>42</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>20</v>
